--- a/sputnik/personal/uch/uch140.xlsx
+++ b/sputnik/personal/uch/uch140.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Оплата членского взноса</t>
   </si>
   <si>
@@ -37,17 +34,22 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2019г</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №140</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -175,26 +177,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -255,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,10 +290,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +324,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -498,17 +499,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -517,12 +518,14 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="16"/>
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -530,124 +533,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="12">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16">
+        <v>10120.459999999999</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="12">
+        <v>43316</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="14">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="12">
+        <v>43369</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="14">
+        <v>7120.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="13">
+        <v>43586</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12">
-        <v>10120.459999999999</v>
-      </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>43316</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10">
+      <c r="C6" s="17">
+        <v>9976.7800000000007</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" s="13">
+        <v>43599</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="15">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="13">
+        <v>43692</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9">
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>43369</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10">
-        <v>7120.46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
-        <v>43586</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="13">
+        <v>43719</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13">
-        <v>9976.7800000000007</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>43599</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="9">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
-        <v>43692</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="11">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>43719</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+    <row r="10" spans="1:4">
+      <c r="A10" s="13">
         <v>43748</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>976.78</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -655,12 +655,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -669,12 +669,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch140.xlsx
+++ b/sputnik/personal/uch/uch140.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,16 +40,19 @@
   </si>
   <si>
     <t>Наименование / садовый участок №140</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -198,6 +201,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -258,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,9 +294,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,6 +329,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -499,17 +505,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D10" sqref="D7:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -518,8 +524,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -533,7 +539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>43221</v>
       </c>
@@ -545,7 +551,7 @@
       </c>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43316</v>
       </c>
@@ -557,7 +563,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43369</v>
       </c>
@@ -569,7 +575,7 @@
         <v>7120.46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43586</v>
       </c>
@@ -581,7 +587,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43599</v>
       </c>
@@ -593,7 +599,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43692</v>
       </c>
@@ -605,7 +611,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43719</v>
       </c>
@@ -617,7 +623,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43748</v>
       </c>
@@ -629,19 +635,25 @@
         <v>976.78</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>43952</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9">
+        <v>11225</v>
+      </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -655,12 +667,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -669,12 +681,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch140.xlsx
+++ b/sputnik/personal/uch/uch140.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2020г</t>
   </si>
 </sst>
 </file>
@@ -69,7 +72,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +82,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,16 +184,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -187,21 +192,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -512,7 +533,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D7:D10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -526,10 +547,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -540,124 +561,130 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="18">
         <v>43221</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="20">
         <v>10120.459999999999</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="18">
         <v>43316</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="14">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21">
         <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="18">
         <v>43369</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="14">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21">
         <v>7120.46</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="9">
         <v>43586</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="11">
         <v>9976.7800000000007</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="9">
         <v>43599</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="15">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14">
         <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="9">
         <v>43692</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9">
+      <c r="C8" s="15"/>
+      <c r="D8" s="16">
         <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="9">
         <v>43719</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9">
+      <c r="C9" s="15"/>
+      <c r="D9" s="16">
         <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="9">
         <v>43748</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9">
+      <c r="C10" s="15"/>
+      <c r="D10" s="16">
         <v>976.78</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="8">
         <v>43952</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>11225</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="8">
+        <v>44091</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>2209.54</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch140.xlsx
+++ b/sputnik/personal/uch/uch140.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -175,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -223,6 +223,7 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -530,10 +531,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -676,15 +677,33 @@
         <v>9</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>2209.54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="8">
+        <v>44116</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5">
+        <v>3666.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>44151</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5">
+        <v>3401.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch140.xlsx
+++ b/sputnik/personal/uch/uch140.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2020г</t>
+  </si>
+  <si>
+    <t>начислены пени за 46 дней просрочки</t>
+  </si>
+  <si>
+    <t>начислены пени за 104 дня просрочки</t>
   </si>
 </sst>
 </file>
@@ -72,7 +78,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +103,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -175,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -223,7 +241,11 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -531,10 +553,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -658,38 +680,38 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="23">
         <v>43952</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="25">
         <v>11225</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="23">
         <v>44091</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5">
+      <c r="C12" s="24"/>
+      <c r="D12" s="25">
         <v>2209.54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="23">
         <v>44116</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5">
+      <c r="C13" s="24"/>
+      <c r="D13" s="25">
         <v>3666.4</v>
       </c>
     </row>
@@ -697,13 +719,61 @@
       <c r="A14" s="23">
         <v>44151</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25">
         <v>3401.5</v>
       </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>44151</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="27">
+        <v>156.47</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>44209</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24">
+        <v>1947.56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>44209</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="27">
+        <v>202.55</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch140.xlsx
+++ b/sputnik/personal/uch/uch140.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>начислены пени за 104 дня просрочки</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2021г</t>
   </si>
 </sst>
 </file>
@@ -78,7 +84,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +121,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -193,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -246,6 +258,10 @@
     <xf numFmtId="2" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -553,10 +569,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -764,16 +780,82 @@
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="28">
+        <v>44317</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="30">
+        <v>11970.34</v>
+      </c>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="28">
+        <v>44357</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch140.xlsx
+++ b/sputnik/personal/uch/uch140.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -571,8 +571,8 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D19:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -800,20 +800,32 @@
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30">
-        <v>2115</v>
+        <v>945</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="8">
+        <v>44419</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>13</v>
+      </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5">
+        <v>5000</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="8">
+        <v>44447</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>13</v>
+      </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5">
+        <v>6025.34</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>

--- a/sputnik/personal/uch/uch140.xlsx
+++ b/sputnik/personal/uch/uch140.xlsx
@@ -571,8 +571,8 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D19:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -804,26 +804,26 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="28">
         <v>44419</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30">
         <v>5000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="28">
         <v>44447</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30">
         <v>6025.34</v>
       </c>
     </row>
